--- a/src/test/java/dataprovider/facebook.xlsx
+++ b/src/test/java/dataprovider/facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajavenkatasaikiran_\IdeaProjects\TestAutomation\src\test\java\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC0232-1693-4D04-91FA-7EC75AD7B2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB14A2-3DC7-4629-9FCF-9CA766D168C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -36,14 +36,32 @@
     <t>sai@dfg</t>
   </si>
   <si>
-    <t>Sdff4rrr4</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>kiran@f11</t>
+  </si>
+  <si>
+    <t>kiran@f12</t>
+  </si>
+  <si>
+    <t>kiran@f13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +73,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,9 +389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -384,12 +410,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EFEFBBF0-D912-4AF3-8F43-EEAA17F852AF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F5DD4613-0C07-4653-92FC-AC22F39D90E5}"/>
+    <hyperlink ref="A4:A5" r:id="rId3" display="kiran@f11" xr:uid="{73A14D31-3B72-4838-824A-102FE3C35BA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/dataprovider/facebook.xlsx
+++ b/src/test/java/dataprovider/facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajavenkatasaikiran_\IdeaProjects\TestAutomation\src\test\java\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB14A2-3DC7-4629-9FCF-9CA766D168C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CE3CDF-3053-4240-891E-A818A0D6CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -33,28 +33,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>sai@dfg</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>kiran@f11</t>
-  </si>
-  <si>
-    <t>kiran@f12</t>
-  </si>
-  <si>
-    <t>kiran@f13</t>
   </si>
 </sst>
 </file>
@@ -389,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,42 +389,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EFEFBBF0-D912-4AF3-8F43-EEAA17F852AF}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{F5DD4613-0C07-4653-92FC-AC22F39D90E5}"/>
-    <hyperlink ref="A4:A5" r:id="rId3" display="kiran@f11" xr:uid="{73A14D31-3B72-4838-824A-102FE3C35BA6}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F5DD4613-0C07-4653-92FC-AC22F39D90E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/dataprovider/facebook.xlsx
+++ b/src/test/java/dataprovider/facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajavenkatasaikiran_\IdeaProjects\TestAutomation\src\test\java\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CE3CDF-3053-4240-891E-A818A0D6CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A805A-F11D-4B48-BCD4-114EE1203FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>kiran@f11</t>
+  </si>
+  <si>
+    <t>kiran@f12</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,10 +401,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F5DD4613-0C07-4653-92FC-AC22F39D90E5}"/>
+    <hyperlink ref="A3" r:id="rId2" display="kiran@f11" xr:uid="{888CE326-484B-42B9-AA0F-66C3A994ED62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/dataprovider/facebook.xlsx
+++ b/src/test/java/dataprovider/facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajavenkatasaikiran_\IdeaProjects\TestAutomation\src\test\java\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A805A-F11D-4B48-BCD4-114EE1203FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FE411-6DCF-447D-AAE5-FF0429C4121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>kiran@f11</t>
-  </si>
-  <si>
-    <t>kiran@f12</t>
-  </si>
-  <si>
-    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -377,11 +371,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A4:B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -401,19 +393,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F5DD4613-0C07-4653-92FC-AC22F39D90E5}"/>
-    <hyperlink ref="A3" r:id="rId2" display="kiran@f11" xr:uid="{888CE326-484B-42B9-AA0F-66C3A994ED62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
